--- a/assets/new-COVID-primer-set-stats.xlsx
+++ b/assets/new-COVID-primer-set-stats.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="138">
   <si>
-    <t xml:space="preserve"># Designed by Tomer Altman. Licensed as Creative Commons Attribution 4.0 International 4.0 (CC BY 4.0) https://creativecommons.org/licenses/by/4.0/</t>
+    <t xml:space="preserve"># Designed by Tomer Altman. Licensed as Creative Commons Attribution 4.0 International (CC BY 4.0) https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -532,7 +532,7 @@
   <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/assets/new-COVID-primer-set-stats.xlsx
+++ b/assets/new-COVID-primer-set-stats.xlsx
@@ -20,9 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="140">
   <si>
     <t xml:space="preserve"># Designed by Tomer Altman. Licensed as Creative Commons Attribution 4.0 International (CC BY 4.0) https://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># This spreadsheet is documented here: https://tomeraltman.net/2020/03/03/technical-problems-COVID-primers.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># The top ten primer probe sets are the best candidates for diagnostic purposes.</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -448,6 +454,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -529,34 +536,34 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="5.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="5.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="185.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="55.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="55.44"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -569,215 +576,95 @@
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" s="0" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>464</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>0.891304</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>0.942529</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>5.337066</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>4.557167</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>0.7799</v>
-      </c>
-      <c r="T3" s="0" t="n">
-        <v>4.139416</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="V4" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>464</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>0.891304</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>0.942529</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>5.706286</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>4.557167</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>1.14912</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>4.139416</v>
-      </c>
-      <c r="V4" s="0" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>259</v>
+        <v>464</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>0</v>
@@ -813,36 +700,36 @@
         <v>0</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>5.925665</v>
+        <v>5.337066</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>4.601956</v>
+        <v>4.557167</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>1.323709</v>
+        <v>0.7799</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>2.463186</v>
+        <v>4.139416</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>0</v>
@@ -878,39 +765,39 @@
         <v>0</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>6.24545</v>
+        <v>5.706286</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>5.465551</v>
+        <v>4.557167</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>0.7799</v>
+        <v>1.14912</v>
       </c>
       <c r="T6" s="0" t="n">
         <v>4.139416</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>322</v>
+        <v>259</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>41</v>
@@ -943,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>6.350991</v>
+        <v>5.925665</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>5.027282</v>
+        <v>4.601956</v>
       </c>
       <c r="S7" s="0" t="n">
         <v>1.323709</v>
@@ -955,24 +842,24 @@
         <v>2.463186</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>0</v>
@@ -1008,39 +895,39 @@
         <v>0</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>6.440853</v>
+        <v>6.24545</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>4.557167</v>
+        <v>5.465551</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>1.883686</v>
+        <v>0.7799</v>
       </c>
       <c r="T8" s="0" t="n">
         <v>4.139416</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>41</v>
@@ -1073,39 +960,39 @@
         <v>0</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>14.589369</v>
+        <v>6.350991</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>11.710856</v>
+        <v>5.027282</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>2.878512</v>
+        <v>1.323709</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>0.04502</v>
+        <v>2.463186</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>547</v>
+        <v>464</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>41</v>
@@ -1138,36 +1025,36 @@
         <v>0</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>15.088317</v>
+        <v>6.440853</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>8.135108</v>
+        <v>4.557167</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>6.953209</v>
+        <v>1.883686</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>0.04502</v>
+        <v>4.139416</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -1203,39 +1090,39 @@
         <v>0</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>17.928602</v>
+        <v>14.589369</v>
       </c>
       <c r="R11" s="0" t="n">
         <v>11.710856</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>6.217746</v>
+        <v>2.878512</v>
       </c>
       <c r="T11" s="0" t="n">
         <v>0.04502</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>346</v>
+        <v>547</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>41</v>
@@ -1268,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>18.664065</v>
+        <v>15.088317</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>11.710856</v>
+        <v>8.135108</v>
       </c>
       <c r="S12" s="0" t="n">
         <v>6.953209</v>
@@ -1280,48 +1167,48 @@
         <v>0.04502</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="D13" s="0" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>258</v>
+        <v>341</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>41</v>
       </c>
       <c r="I13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J13" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>0.97619</v>
-      </c>
       <c r="L13" s="0" t="n">
         <v>0.891304</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>0.931818</v>
+        <v>0.942529</v>
       </c>
       <c r="N13" s="0" t="n">
         <v>0</v>
@@ -1333,63 +1220,60 @@
         <v>0</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>4.324505</v>
+        <v>17.928602</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>3.000796</v>
+        <v>11.710856</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>1.323709</v>
+        <v>6.217746</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>2.463186</v>
-      </c>
-      <c r="U13" s="0" t="s">
-        <v>52</v>
+        <v>0.04502</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>274</v>
+        <v>346</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>41</v>
       </c>
       <c r="I14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J14" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>0.97619</v>
-      </c>
       <c r="L14" s="0" t="n">
         <v>0.891304</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>0.931818</v>
+        <v>0.942529</v>
       </c>
       <c r="N14" s="0" t="n">
         <v>0</v>
@@ -1401,42 +1285,39 @@
         <v>0</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>4.495894</v>
+        <v>18.664065</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>1.200014</v>
+        <v>11.710856</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>3.29588</v>
+        <v>6.953209</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>2.463186</v>
-      </c>
-      <c r="U14" s="0" t="s">
-        <v>52</v>
+        <v>0.04502</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>42</v>
@@ -1469,42 +1350,42 @@
         <v>0</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>4.607591</v>
+        <v>4.324505</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>1.311712</v>
+        <v>3.000796</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>3.29588</v>
+        <v>1.323709</v>
       </c>
       <c r="T15" s="0" t="n">
         <v>2.463186</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>42</v>
@@ -1537,42 +1418,42 @@
         <v>0</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>4.923269</v>
+        <v>4.495894</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>3.599561</v>
+        <v>1.200014</v>
       </c>
       <c r="S16" s="0" t="n">
-        <v>1.323709</v>
+        <v>3.29588</v>
       </c>
       <c r="T16" s="0" t="n">
         <v>2.463186</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>42</v>
@@ -1605,39 +1486,39 @@
         <v>0</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>5.285796</v>
+        <v>4.607591</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>3.000796</v>
+        <v>1.311712</v>
       </c>
       <c r="S17" s="0" t="n">
-        <v>2.285</v>
+        <v>3.29588</v>
       </c>
       <c r="T17" s="0" t="n">
         <v>2.463186</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>0</v>
@@ -1673,42 +1554,42 @@
         <v>0</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>5.45478</v>
+        <v>4.923269</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>3.000796</v>
+        <v>3.599561</v>
       </c>
       <c r="S18" s="0" t="n">
-        <v>2.453984</v>
+        <v>1.323709</v>
       </c>
       <c r="T18" s="0" t="n">
         <v>2.463186</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>42</v>
@@ -1741,39 +1622,39 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>5.692838</v>
+        <v>5.285796</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>2.396959</v>
+        <v>3.000796</v>
       </c>
       <c r="S19" s="0" t="n">
-        <v>3.29588</v>
+        <v>2.285</v>
       </c>
       <c r="T19" s="0" t="n">
         <v>2.463186</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>0</v>
@@ -1809,42 +1690,42 @@
         <v>0</v>
       </c>
       <c r="Q20" s="0" t="n">
-        <v>5.69371</v>
+        <v>5.45478</v>
       </c>
       <c r="R20" s="0" t="n">
         <v>3.000796</v>
       </c>
       <c r="S20" s="0" t="n">
-        <v>2.692914</v>
+        <v>2.453984</v>
       </c>
       <c r="T20" s="0" t="n">
         <v>2.463186</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>42</v>
@@ -1877,39 +1758,39 @@
         <v>0</v>
       </c>
       <c r="Q21" s="0" t="n">
-        <v>5.884561</v>
+        <v>5.692838</v>
       </c>
       <c r="R21" s="0" t="n">
-        <v>3.599561</v>
+        <v>2.396959</v>
       </c>
       <c r="S21" s="0" t="n">
-        <v>2.285</v>
+        <v>3.29588</v>
       </c>
       <c r="T21" s="0" t="n">
         <v>2.463186</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V21" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>70</v>
-      </c>
       <c r="D22" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>0</v>
@@ -1945,39 +1826,39 @@
         <v>0</v>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>5.909695</v>
+        <v>5.69371</v>
       </c>
       <c r="R22" s="0" t="n">
         <v>3.000796</v>
       </c>
       <c r="S22" s="0" t="n">
-        <v>2.908899</v>
+        <v>2.692914</v>
       </c>
       <c r="T22" s="0" t="n">
         <v>2.463186</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>63</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>0</v>
@@ -2013,39 +1894,39 @@
         <v>0</v>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>5.930026</v>
+        <v>5.884561</v>
       </c>
       <c r="R23" s="0" t="n">
-        <v>3.476042</v>
+        <v>3.599561</v>
       </c>
       <c r="S23" s="0" t="n">
-        <v>2.453984</v>
+        <v>2.285</v>
       </c>
       <c r="T23" s="0" t="n">
         <v>2.463186</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>0</v>
@@ -2081,42 +1962,42 @@
         <v>0</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>5.955095</v>
+        <v>5.909695</v>
       </c>
       <c r="R24" s="0" t="n">
-        <v>4.631386</v>
+        <v>3.000796</v>
       </c>
       <c r="S24" s="0" t="n">
-        <v>1.323709</v>
+        <v>2.908899</v>
       </c>
       <c r="T24" s="0" t="n">
         <v>2.463186</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>42</v>
@@ -2149,39 +2030,39 @@
         <v>0</v>
       </c>
       <c r="Q25" s="0" t="n">
-        <v>5.975157</v>
+        <v>5.930026</v>
       </c>
       <c r="R25" s="0" t="n">
-        <v>1.200014</v>
+        <v>3.476042</v>
       </c>
       <c r="S25" s="0" t="n">
-        <v>4.775143</v>
+        <v>2.453984</v>
       </c>
       <c r="T25" s="0" t="n">
         <v>2.463186</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>0</v>
@@ -2217,42 +2098,42 @@
         <v>0</v>
       </c>
       <c r="Q26" s="0" t="n">
-        <v>6.053545</v>
+        <v>5.955095</v>
       </c>
       <c r="R26" s="0" t="n">
-        <v>3.599561</v>
+        <v>4.631386</v>
       </c>
       <c r="S26" s="0" t="n">
-        <v>2.453984</v>
+        <v>1.323709</v>
       </c>
       <c r="T26" s="0" t="n">
         <v>2.463186</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>79</v>
-      </c>
       <c r="D27" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>42</v>
@@ -2285,39 +2166,39 @@
         <v>0</v>
       </c>
       <c r="Q27" s="0" t="n">
-        <v>6.19782</v>
+        <v>5.975157</v>
       </c>
       <c r="R27" s="0" t="n">
         <v>1.200014</v>
       </c>
       <c r="S27" s="0" t="n">
-        <v>4.997806</v>
+        <v>4.775143</v>
       </c>
       <c r="T27" s="0" t="n">
         <v>2.463186</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>0</v>
@@ -2353,42 +2234,42 @@
         <v>0</v>
       </c>
       <c r="Q28" s="0" t="n">
-        <v>6.292475</v>
+        <v>6.053545</v>
       </c>
       <c r="R28" s="0" t="n">
         <v>3.599561</v>
       </c>
       <c r="S28" s="0" t="n">
-        <v>2.692914</v>
+        <v>2.453984</v>
       </c>
       <c r="T28" s="0" t="n">
         <v>2.463186</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V28" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="D29" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>42</v>
@@ -2421,22 +2302,22 @@
         <v>0</v>
       </c>
       <c r="Q29" s="0" t="n">
-        <v>6.296676</v>
+        <v>6.19782</v>
       </c>
       <c r="R29" s="0" t="n">
-        <v>3.000796</v>
+        <v>1.200014</v>
       </c>
       <c r="S29" s="0" t="n">
-        <v>3.29588</v>
+        <v>4.997806</v>
       </c>
       <c r="T29" s="0" t="n">
         <v>2.463186</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V29" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2444,16 +2325,16 @@
         <v>82</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>0</v>
@@ -2489,10 +2370,10 @@
         <v>0</v>
       </c>
       <c r="Q30" s="0" t="n">
-        <v>6.459679</v>
+        <v>6.292475</v>
       </c>
       <c r="R30" s="0" t="n">
-        <v>3.766765</v>
+        <v>3.599561</v>
       </c>
       <c r="S30" s="0" t="n">
         <v>2.692914</v>
@@ -2501,27 +2382,27 @@
         <v>2.463186</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V30" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>692</v>
+        <v>260</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>0</v>
@@ -2557,39 +2438,39 @@
         <v>0</v>
       </c>
       <c r="Q31" s="0" t="n">
-        <v>11.355565</v>
+        <v>6.296676</v>
       </c>
       <c r="R31" s="0" t="n">
-        <v>3.920596</v>
+        <v>3.000796</v>
       </c>
       <c r="S31" s="0" t="n">
-        <v>7.434969</v>
+        <v>3.29588</v>
       </c>
       <c r="T31" s="0" t="n">
-        <v>1.087007</v>
+        <v>2.463186</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V31" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>695</v>
+        <v>264</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>0</v>
@@ -2625,39 +2506,39 @@
         <v>0</v>
       </c>
       <c r="Q32" s="0" t="n">
-        <v>13.750144</v>
+        <v>6.459679</v>
       </c>
       <c r="R32" s="0" t="n">
-        <v>6.315175</v>
+        <v>3.766765</v>
       </c>
       <c r="S32" s="0" t="n">
-        <v>7.434969</v>
+        <v>2.692914</v>
       </c>
       <c r="T32" s="0" t="n">
-        <v>1.087007</v>
+        <v>2.463186</v>
       </c>
       <c r="U32" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V32" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>0</v>
@@ -2693,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="Q33" s="0" t="n">
-        <v>14.036002</v>
+        <v>11.355565</v>
       </c>
       <c r="R33" s="0" t="n">
-        <v>6.601033</v>
+        <v>3.920596</v>
       </c>
       <c r="S33" s="0" t="n">
         <v>7.434969</v>
@@ -2705,27 +2586,27 @@
         <v>1.087007</v>
       </c>
       <c r="U33" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V33" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>675</v>
+        <v>695</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>0</v>
@@ -2761,63 +2642,63 @@
         <v>0</v>
       </c>
       <c r="Q34" s="0" t="n">
-        <v>15.882581</v>
+        <v>13.750144</v>
       </c>
       <c r="R34" s="0" t="n">
-        <v>6.120237</v>
+        <v>6.315175</v>
       </c>
       <c r="S34" s="0" t="n">
-        <v>9.762344</v>
+        <v>7.434969</v>
       </c>
       <c r="T34" s="0" t="n">
         <v>1.087007</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V34" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>41</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>5</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>0.953488</v>
+        <v>0.97619</v>
       </c>
       <c r="L35" s="0" t="n">
         <v>0.891304</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>0.921348</v>
+        <v>0.931818</v>
       </c>
       <c r="N35" s="0" t="n">
         <v>0</v>
@@ -2829,10 +2710,10 @@
         <v>0</v>
       </c>
       <c r="Q35" s="0" t="n">
-        <v>10.418222</v>
+        <v>14.036002</v>
       </c>
       <c r="R35" s="0" t="n">
-        <v>2.983253</v>
+        <v>6.601033</v>
       </c>
       <c r="S35" s="0" t="n">
         <v>7.434969</v>
@@ -2841,51 +2722,51 @@
         <v>1.087007</v>
       </c>
       <c r="U35" s="0" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="V35" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>694</v>
+        <v>675</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>41</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>5</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>0.953488</v>
+        <v>0.97619</v>
       </c>
       <c r="L36" s="0" t="n">
         <v>0.891304</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>0.921348</v>
+        <v>0.931818</v>
       </c>
       <c r="N36" s="0" t="n">
         <v>0</v>
@@ -2897,63 +2778,63 @@
         <v>0</v>
       </c>
       <c r="Q36" s="0" t="n">
-        <v>12.759373</v>
+        <v>15.882581</v>
       </c>
       <c r="R36" s="0" t="n">
-        <v>5.324404</v>
+        <v>6.120237</v>
       </c>
       <c r="S36" s="0" t="n">
-        <v>7.434969</v>
+        <v>9.762344</v>
       </c>
       <c r="T36" s="0" t="n">
         <v>1.087007</v>
       </c>
       <c r="U36" s="0" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="V36" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>776</v>
+        <v>690</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>41</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>5</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>0.931818</v>
+        <v>0.953488</v>
       </c>
       <c r="L37" s="0" t="n">
         <v>0.891304</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>0.911111</v>
+        <v>0.921348</v>
       </c>
       <c r="N37" s="0" t="n">
         <v>0</v>
@@ -2965,63 +2846,63 @@
         <v>0</v>
       </c>
       <c r="Q37" s="0" t="n">
-        <v>1.725711</v>
+        <v>10.418222</v>
       </c>
       <c r="R37" s="0" t="n">
-        <v>0.945811</v>
+        <v>2.983253</v>
       </c>
       <c r="S37" s="0" t="n">
-        <v>0.7799</v>
+        <v>7.434969</v>
       </c>
       <c r="T37" s="0" t="n">
-        <v>4.139416</v>
+        <v>1.087007</v>
       </c>
       <c r="U37" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V37" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>101</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>776</v>
+        <v>694</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>41</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>5</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>0.931818</v>
+        <v>0.953488</v>
       </c>
       <c r="L38" s="0" t="n">
         <v>0.891304</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>0.911111</v>
+        <v>0.921348</v>
       </c>
       <c r="N38" s="0" t="n">
         <v>0</v>
@@ -3033,39 +2914,39 @@
         <v>0</v>
       </c>
       <c r="Q38" s="0" t="n">
-        <v>2.829497</v>
+        <v>12.759373</v>
       </c>
       <c r="R38" s="0" t="n">
-        <v>0.945811</v>
+        <v>5.324404</v>
       </c>
       <c r="S38" s="0" t="n">
-        <v>1.883686</v>
+        <v>7.434969</v>
       </c>
       <c r="T38" s="0" t="n">
-        <v>4.139416</v>
+        <v>1.087007</v>
       </c>
       <c r="U38" s="0" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="V38" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>475</v>
+        <v>776</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>0</v>
@@ -3101,10 +2982,10 @@
         <v>0</v>
       </c>
       <c r="Q39" s="0" t="n">
-        <v>2.907428</v>
+        <v>1.725711</v>
       </c>
       <c r="R39" s="0" t="n">
-        <v>2.127528</v>
+        <v>0.945811</v>
       </c>
       <c r="S39" s="0" t="n">
         <v>0.7799</v>
@@ -3116,21 +2997,21 @@
         <v>104</v>
       </c>
       <c r="V39" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>776</v>
@@ -3169,39 +3050,39 @@
         <v>0</v>
       </c>
       <c r="Q40" s="0" t="n">
-        <v>2.962697</v>
+        <v>2.829497</v>
       </c>
       <c r="R40" s="0" t="n">
         <v>0.945811</v>
       </c>
       <c r="S40" s="0" t="n">
-        <v>2.016886</v>
+        <v>1.883686</v>
       </c>
       <c r="T40" s="0" t="n">
         <v>4.139416</v>
       </c>
       <c r="U40" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="V40" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>775</v>
+        <v>475</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>0</v>
@@ -3237,10 +3118,10 @@
         <v>0</v>
       </c>
       <c r="Q41" s="0" t="n">
-        <v>3.241671</v>
+        <v>2.907428</v>
       </c>
       <c r="R41" s="0" t="n">
-        <v>2.461771</v>
+        <v>2.127528</v>
       </c>
       <c r="S41" s="0" t="n">
         <v>0.7799</v>
@@ -3249,27 +3130,27 @@
         <v>4.139416</v>
       </c>
       <c r="U41" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="V41" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>499</v>
+        <v>776</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>0</v>
@@ -3305,39 +3186,39 @@
         <v>0</v>
       </c>
       <c r="Q42" s="0" t="n">
-        <v>3.25142</v>
+        <v>2.962697</v>
       </c>
       <c r="R42" s="0" t="n">
-        <v>2.47152</v>
+        <v>0.945811</v>
       </c>
       <c r="S42" s="0" t="n">
-        <v>0.7799</v>
+        <v>2.016886</v>
       </c>
       <c r="T42" s="0" t="n">
         <v>4.139416</v>
       </c>
       <c r="U42" s="0" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="V42" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>0</v>
@@ -3373,36 +3254,36 @@
         <v>0</v>
       </c>
       <c r="Q43" s="0" t="n">
-        <v>3.276648</v>
+        <v>3.241671</v>
       </c>
       <c r="R43" s="0" t="n">
-        <v>2.127528</v>
+        <v>2.461771</v>
       </c>
       <c r="S43" s="0" t="n">
-        <v>1.14912</v>
+        <v>0.7799</v>
       </c>
       <c r="T43" s="0" t="n">
         <v>4.139416</v>
       </c>
       <c r="U43" s="0" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="V43" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>499</v>
@@ -3441,22 +3322,22 @@
         <v>0</v>
       </c>
       <c r="Q44" s="0" t="n">
-        <v>3.62064</v>
+        <v>3.25142</v>
       </c>
       <c r="R44" s="0" t="n">
         <v>2.47152</v>
       </c>
       <c r="S44" s="0" t="n">
-        <v>1.14912</v>
+        <v>0.7799</v>
       </c>
       <c r="T44" s="0" t="n">
         <v>4.139416</v>
       </c>
       <c r="U44" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="V44" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3464,13 +3345,13 @@
         <v>116</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>475</v>
@@ -3509,22 +3390,22 @@
         <v>0</v>
       </c>
       <c r="Q45" s="0" t="n">
-        <v>4.011214</v>
+        <v>3.276648</v>
       </c>
       <c r="R45" s="0" t="n">
         <v>2.127528</v>
       </c>
       <c r="S45" s="0" t="n">
-        <v>1.883686</v>
+        <v>1.14912</v>
       </c>
       <c r="T45" s="0" t="n">
         <v>4.139416</v>
       </c>
       <c r="U45" s="0" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="V45" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3532,16 +3413,16 @@
         <v>117</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>0</v>
@@ -3577,22 +3458,22 @@
         <v>0</v>
       </c>
       <c r="Q46" s="0" t="n">
-        <v>4.144414</v>
+        <v>3.62064</v>
       </c>
       <c r="R46" s="0" t="n">
-        <v>2.127528</v>
+        <v>2.47152</v>
       </c>
       <c r="S46" s="0" t="n">
-        <v>2.016886</v>
+        <v>1.14912</v>
       </c>
       <c r="T46" s="0" t="n">
         <v>4.139416</v>
       </c>
       <c r="U46" s="0" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="V46" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3600,16 +3481,16 @@
         <v>118</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>775</v>
+        <v>475</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>0</v>
@@ -3645,10 +3526,10 @@
         <v>0</v>
       </c>
       <c r="Q47" s="0" t="n">
-        <v>4.345458</v>
+        <v>4.011214</v>
       </c>
       <c r="R47" s="0" t="n">
-        <v>2.461771</v>
+        <v>2.127528</v>
       </c>
       <c r="S47" s="0" t="n">
         <v>1.883686</v>
@@ -3657,10 +3538,10 @@
         <v>4.139416</v>
       </c>
       <c r="U47" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="V47" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3668,16 +3549,16 @@
         <v>119</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>0</v>
@@ -3713,22 +3594,22 @@
         <v>0</v>
       </c>
       <c r="Q48" s="0" t="n">
-        <v>4.355207</v>
+        <v>4.144414</v>
       </c>
       <c r="R48" s="0" t="n">
-        <v>2.47152</v>
+        <v>2.127528</v>
       </c>
       <c r="S48" s="0" t="n">
-        <v>1.883686</v>
+        <v>2.016886</v>
       </c>
       <c r="T48" s="0" t="n">
         <v>4.139416</v>
       </c>
       <c r="U48" s="0" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="V48" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3736,13 +3617,13 @@
         <v>120</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>775</v>
@@ -3781,22 +3662,22 @@
         <v>0</v>
       </c>
       <c r="Q49" s="0" t="n">
-        <v>4.478657</v>
+        <v>4.345458</v>
       </c>
       <c r="R49" s="0" t="n">
         <v>2.461771</v>
       </c>
       <c r="S49" s="0" t="n">
-        <v>2.016886</v>
+        <v>1.883686</v>
       </c>
       <c r="T49" s="0" t="n">
         <v>4.139416</v>
       </c>
       <c r="U49" s="0" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="V49" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3804,13 +3685,13 @@
         <v>121</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>499</v>
@@ -3849,22 +3730,22 @@
         <v>0</v>
       </c>
       <c r="Q50" s="0" t="n">
-        <v>4.488406</v>
+        <v>4.355207</v>
       </c>
       <c r="R50" s="0" t="n">
         <v>2.47152</v>
       </c>
       <c r="S50" s="0" t="n">
-        <v>2.016886</v>
+        <v>1.883686</v>
       </c>
       <c r="T50" s="0" t="n">
         <v>4.139416</v>
       </c>
       <c r="U50" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="V50" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3872,19 +3753,19 @@
         <v>122</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>311</v>
+        <v>775</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="0" t="n">
         <v>44</v>
@@ -3917,63 +3798,63 @@
         <v>0</v>
       </c>
       <c r="Q51" s="0" t="n">
-        <v>18.93714</v>
+        <v>4.478657</v>
       </c>
       <c r="R51" s="0" t="n">
-        <v>11.983931</v>
+        <v>2.461771</v>
       </c>
       <c r="S51" s="0" t="n">
-        <v>6.953209</v>
+        <v>2.016886</v>
       </c>
       <c r="T51" s="0" t="n">
-        <v>0.04502</v>
+        <v>4.139416</v>
       </c>
       <c r="U51" s="0" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="V51" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>657</v>
+        <v>499</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>41</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J52" s="0" t="n">
         <v>5</v>
       </c>
       <c r="K52" s="0" t="n">
-        <v>0.803922</v>
+        <v>0.931818</v>
       </c>
       <c r="L52" s="0" t="n">
         <v>0.891304</v>
       </c>
       <c r="M52" s="0" t="n">
-        <v>0.845361</v>
+        <v>0.911111</v>
       </c>
       <c r="N52" s="0" t="n">
         <v>0</v>
@@ -3985,63 +3866,63 @@
         <v>0</v>
       </c>
       <c r="Q52" s="0" t="n">
-        <v>13.241653</v>
+        <v>4.488406</v>
       </c>
       <c r="R52" s="0" t="n">
-        <v>6.120237</v>
+        <v>2.47152</v>
       </c>
       <c r="S52" s="0" t="n">
-        <v>7.121416</v>
+        <v>2.016886</v>
       </c>
       <c r="T52" s="0" t="n">
-        <v>1.087007</v>
+        <v>4.139416</v>
       </c>
       <c r="U52" s="0" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="V52" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>606</v>
+        <v>311</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>41</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J53" s="0" t="n">
         <v>5</v>
       </c>
       <c r="K53" s="0" t="n">
-        <v>0.803922</v>
+        <v>0.931818</v>
       </c>
       <c r="L53" s="0" t="n">
         <v>0.891304</v>
       </c>
       <c r="M53" s="0" t="n">
-        <v>0.845361</v>
+        <v>0.911111</v>
       </c>
       <c r="N53" s="0" t="n">
         <v>0</v>
@@ -4053,63 +3934,63 @@
         <v>0</v>
       </c>
       <c r="Q53" s="0" t="n">
-        <v>15.11066</v>
+        <v>18.93714</v>
       </c>
       <c r="R53" s="0" t="n">
-        <v>6.120237</v>
+        <v>11.983931</v>
       </c>
       <c r="S53" s="0" t="n">
-        <v>8.990423</v>
+        <v>6.953209</v>
       </c>
       <c r="T53" s="0" t="n">
-        <v>1.087007</v>
+        <v>0.04502</v>
       </c>
       <c r="U53" s="0" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="V53" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>713</v>
+        <v>657</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>239</v>
+        <v>51</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>41</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="J54" s="0" t="n">
         <v>5</v>
       </c>
       <c r="K54" s="0" t="n">
-        <v>0.171548</v>
+        <v>0.803922</v>
       </c>
       <c r="L54" s="0" t="n">
         <v>0.891304</v>
       </c>
       <c r="M54" s="0" t="n">
-        <v>0.287719</v>
+        <v>0.845361</v>
       </c>
       <c r="N54" s="0" t="n">
         <v>0</v>
@@ -4121,158 +4002,294 @@
         <v>0</v>
       </c>
       <c r="Q54" s="0" t="n">
-        <v>5.959552</v>
+        <v>13.241653</v>
       </c>
       <c r="R54" s="0" t="n">
-        <v>5.179652</v>
+        <v>6.120237</v>
       </c>
       <c r="S54" s="0" t="n">
-        <v>0.7799</v>
+        <v>7.121416</v>
       </c>
       <c r="T54" s="0" t="n">
-        <v>4.139416</v>
+        <v>1.087007</v>
       </c>
       <c r="U54" s="0" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="V54" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B55" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>606</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>0.803922</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <v>0.891304</v>
+      </c>
+      <c r="M55" s="0" t="n">
+        <v>0.845361</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="0" t="n">
+        <v>15.11066</v>
+      </c>
+      <c r="R55" s="0" t="n">
+        <v>6.120237</v>
+      </c>
+      <c r="S55" s="0" t="n">
+        <v>8.990423</v>
+      </c>
+      <c r="T55" s="0" t="n">
+        <v>1.087007</v>
+      </c>
+      <c r="U55" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C55" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>713</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>239</v>
-      </c>
-      <c r="H55" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="I55" s="0" t="n">
-        <v>198</v>
-      </c>
-      <c r="J55" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="K55" s="0" t="n">
-        <v>0.171548</v>
-      </c>
-      <c r="L55" s="0" t="n">
-        <v>0.891304</v>
-      </c>
-      <c r="M55" s="0" t="n">
-        <v>0.287719</v>
-      </c>
-      <c r="N55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="0" t="n">
-        <v>6.328772</v>
-      </c>
-      <c r="R55" s="0" t="n">
-        <v>5.179652</v>
-      </c>
-      <c r="S55" s="0" t="n">
-        <v>1.14912</v>
-      </c>
-      <c r="T55" s="0" t="n">
-        <v>4.139416</v>
-      </c>
-      <c r="U55" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="V55" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>713</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>239</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>198</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>0.171548</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>0.891304</v>
+      </c>
+      <c r="M56" s="0" t="n">
+        <v>0.287719</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="0" t="n">
+        <v>5.959552</v>
+      </c>
+      <c r="R56" s="0" t="n">
+        <v>5.179652</v>
+      </c>
+      <c r="S56" s="0" t="n">
+        <v>0.7799</v>
+      </c>
+      <c r="T56" s="0" t="n">
+        <v>4.139416</v>
+      </c>
+      <c r="U56" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="V56" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="E56" s="0" t="n">
+      <c r="B57" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>713</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>239</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>198</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>0.171548</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>0.891304</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>0.287719</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="0" t="n">
+        <v>6.328772</v>
+      </c>
+      <c r="R57" s="0" t="n">
+        <v>5.179652</v>
+      </c>
+      <c r="S57" s="0" t="n">
+        <v>1.14912</v>
+      </c>
+      <c r="T57" s="0" t="n">
+        <v>4.139416</v>
+      </c>
+      <c r="U57" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="V57" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="0" t="n">
         <v>965</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="F58" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G56" s="0" t="n">
+      <c r="G58" s="0" t="n">
         <v>281</v>
       </c>
-      <c r="H56" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="I56" s="0" t="n">
+      <c r="H58" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="I58" s="0" t="n">
         <v>240</v>
       </c>
-      <c r="J56" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="K56" s="0" t="n">
+      <c r="J58" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K58" s="0" t="n">
         <v>0.145907</v>
       </c>
-      <c r="L56" s="0" t="n">
-        <v>0.891304</v>
-      </c>
-      <c r="M56" s="0" t="n">
+      <c r="L58" s="0" t="n">
+        <v>0.891304</v>
+      </c>
+      <c r="M58" s="0" t="n">
         <v>0.250765</v>
       </c>
-      <c r="N56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="0" t="n">
+      <c r="N58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="0" t="n">
         <v>13.555206</v>
       </c>
-      <c r="R56" s="0" t="n">
+      <c r="R58" s="0" t="n">
         <v>6.120237</v>
       </c>
-      <c r="S56" s="0" t="n">
+      <c r="S58" s="0" t="n">
         <v>7.434969</v>
       </c>
-      <c r="T56" s="0" t="n">
+      <c r="T58" s="0" t="n">
         <v>1.087007</v>
       </c>
-      <c r="U56" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="V56" s="0" t="s">
-        <v>27</v>
+      <c r="U58" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="V58" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
